--- a/storage/app/import/cn-item-tc.xlsx
+++ b/storage/app/import/cn-item-tc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MeMFIS\storage\app\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6E039-CE7D-4315-98CF-3FABF64E5887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B5CFA-AD3F-4019-B3F2-9C900E81E5A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="2790" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="2910" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT MATERIAL TC" sheetId="10" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'INPUT MATERIAL TC'!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="157">
   <si>
     <t>EA</t>
   </si>
@@ -232,9 +232,6 @@
     <t>RAW-NR094</t>
   </si>
   <si>
-    <t>ROLL</t>
-  </si>
-  <si>
     <t>PAI</t>
   </si>
   <si>
@@ -259,20 +256,251 @@
     <t>I/W</t>
   </si>
   <si>
-    <t>RAW-NR094-A</t>
-  </si>
-  <si>
-    <t>35-13328-0401-A</t>
-  </si>
-  <si>
     <t>Cleaning Solvent Z-23.138</t>
+  </si>
+  <si>
+    <t>21-01</t>
+  </si>
+  <si>
+    <t>21-13</t>
+  </si>
+  <si>
+    <t>21-15</t>
+  </si>
+  <si>
+    <t>24-02</t>
+  </si>
+  <si>
+    <t>28-10</t>
+  </si>
+  <si>
+    <t>21-19</t>
+  </si>
+  <si>
+    <t>21-20</t>
+  </si>
+  <si>
+    <t>21-21</t>
+  </si>
+  <si>
+    <t>24-03</t>
+  </si>
+  <si>
+    <t>29-03</t>
+  </si>
+  <si>
+    <t>29-05</t>
+  </si>
+  <si>
+    <t>33-08</t>
+  </si>
+  <si>
+    <t>28-06</t>
+  </si>
+  <si>
+    <t>21-04</t>
+  </si>
+  <si>
+    <t>21-06</t>
+  </si>
+  <si>
+    <t>24-01</t>
+  </si>
+  <si>
+    <t>29-07</t>
+  </si>
+  <si>
+    <t>21-03</t>
+  </si>
+  <si>
+    <t>21-16</t>
+  </si>
+  <si>
+    <t>21-17</t>
+  </si>
+  <si>
+    <t>21-18</t>
+  </si>
+  <si>
+    <t>23-09</t>
+  </si>
+  <si>
+    <t>31-01</t>
+  </si>
+  <si>
+    <t>73-04</t>
+  </si>
+  <si>
+    <t>79-08</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-NR094-Z23204</t>
+  </si>
+  <si>
+    <t>35-11392-0403-MASK</t>
+  </si>
+  <si>
+    <t>35-13328-0401-JOINT</t>
+  </si>
+  <si>
+    <t>782630-4</t>
+  </si>
+  <si>
+    <t>103696-1</t>
+  </si>
+  <si>
+    <t>147527-1</t>
+  </si>
+  <si>
+    <t>8160-530</t>
+  </si>
+  <si>
+    <t>CA78200-0001</t>
+  </si>
+  <si>
+    <t>781102-1</t>
+  </si>
+  <si>
+    <t>781101-1</t>
+  </si>
+  <si>
+    <t>754691-2</t>
+  </si>
+  <si>
+    <t>MPEV3-011-8UK2B</t>
+  </si>
+  <si>
+    <t>6942Q010</t>
+  </si>
+  <si>
+    <t>6943Q010</t>
+  </si>
+  <si>
+    <t>60-3895-1</t>
+  </si>
+  <si>
+    <t>RR54630B</t>
+  </si>
+  <si>
+    <t>778686-2</t>
+  </si>
+  <si>
+    <t>778695-2</t>
+  </si>
+  <si>
+    <t>31342-001</t>
+  </si>
+  <si>
+    <t>1965H000</t>
+  </si>
+  <si>
+    <t>764821-3</t>
+  </si>
+  <si>
+    <t>782640-2</t>
+  </si>
+  <si>
+    <t>783670-1</t>
+  </si>
+  <si>
+    <t>93-A100-80</t>
+  </si>
+  <si>
+    <t>17-M800-251</t>
+  </si>
+  <si>
+    <t>AC9985F30</t>
+  </si>
+  <si>
+    <t>5044T15P01</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Primary Outflow Valve</t>
+  </si>
+  <si>
+    <t>Secondary Outflow Valve</t>
+  </si>
+  <si>
+    <t>Starter Generator</t>
+  </si>
+  <si>
+    <t>Fuel Ejector Filter</t>
+  </si>
+  <si>
+    <t>Water Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spray Nozzle </t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Electrical Motor Driven Pumps</t>
+  </si>
+  <si>
+    <t>Hydraulic Filters of Module Unit</t>
+  </si>
+  <si>
+    <t>Emergency Light Power Supply Units</t>
+  </si>
+  <si>
+    <t>Submergered fuel pump</t>
+  </si>
+  <si>
+    <t>Filter of High Pressure  Shut-off Valve</t>
+  </si>
+  <si>
+    <t>Filter of Pressure Regulator and shut-off valve</t>
+  </si>
+  <si>
+    <t>AC generator</t>
+  </si>
+  <si>
+    <t>Hydraulic filter generator manifold</t>
+  </si>
+  <si>
+    <t>Precooler</t>
+  </si>
+  <si>
+    <t>Dual Heat Exchanger</t>
+  </si>
+  <si>
+    <t>Condensor and Mixer</t>
+  </si>
+  <si>
+    <t>Cockpit voice recorder</t>
+  </si>
+  <si>
+    <t>DFDR</t>
+  </si>
+  <si>
+    <t>Power Unit Fuel Filter Element</t>
+  </si>
+  <si>
+    <t>Power Unit Oil Filter Element</t>
+  </si>
+  <si>
+    <t>782630-3</t>
+  </si>
+  <si>
+    <t>CA78200-0002</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>RAW-MATERIAL-PL-PUTIH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="5" formatCode="&quot;Rp&quot;#,##0;\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -287,8 +515,9 @@
     <numFmt numFmtId="172" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="173" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="174" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="175" formatCode="0_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +575,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -402,6 +632,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -423,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -474,8 +708,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -535,8 +830,70 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -565,10 +922,79 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,26 +1003,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="121">
     <cellStyle name="AeE­ [0]_INQUIRY ¿?¾÷AßAø " xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="AeE­_INQUIRY ¿?¾÷AßAø " xfId="15" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="AÞ¸¶ [0]_INQUIRY ¿?¾÷AßAø " xfId="16" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -616,7 +1051,37 @@
     <cellStyle name="no dec" xfId="24" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="25" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 10" xfId="67" xr:uid="{BBF0A706-CB19-4287-AB18-290E43B8B7AE}"/>
+    <cellStyle name="Normal 10 2" xfId="88" xr:uid="{B409B00E-24D1-4D46-A3FA-6454590BF9E8}"/>
+    <cellStyle name="Normal 10 3" xfId="110" xr:uid="{99EF752D-8C96-457D-8D50-2D0D01B2D499}"/>
+    <cellStyle name="Normal 11" xfId="75" xr:uid="{CC85D539-9187-4026-8BA1-D79DEC49B90C}"/>
+    <cellStyle name="Normal 11 2" xfId="91" xr:uid="{1239CA61-4B42-4138-A496-2E1FDB48C211}"/>
     <cellStyle name="Normal 11 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 11 3" xfId="115" xr:uid="{DD45270D-2BD8-4A0C-88AC-6567785CCCC3}"/>
+    <cellStyle name="Normal 12" xfId="60" xr:uid="{49A42D82-8C09-405D-B053-7D47DF4B69EC}"/>
+    <cellStyle name="Normal 12 2" xfId="81" xr:uid="{8729A6AC-91A7-4F65-A85B-2BA0EE9BA277}"/>
+    <cellStyle name="Normal 12 3" xfId="103" xr:uid="{676C5F20-496D-4C31-8261-419161E8A2E1}"/>
+    <cellStyle name="Normal 13" xfId="61" xr:uid="{D9DD1284-BED9-41BA-9FC6-A3A8E0D05E0D}"/>
+    <cellStyle name="Normal 13 2" xfId="82" xr:uid="{3E867AE7-868E-4897-A554-9FC9755F8E4D}"/>
+    <cellStyle name="Normal 13 3" xfId="104" xr:uid="{6D218920-3456-423B-B6BA-E9758D7EFDA8}"/>
+    <cellStyle name="Normal 14" xfId="62" xr:uid="{B921B479-1576-41F1-8A29-3A8DA9BB8634}"/>
+    <cellStyle name="Normal 14 2" xfId="83" xr:uid="{3A9A0EAA-3864-489D-815D-274EF5C4C71B}"/>
+    <cellStyle name="Normal 14 3" xfId="105" xr:uid="{BFBBC8C9-D66C-4295-A29F-7DBAB09018FF}"/>
+    <cellStyle name="Normal 15" xfId="64" xr:uid="{48785029-499D-4DAE-BBB3-D1DAAE00734A}"/>
+    <cellStyle name="Normal 15 2" xfId="85" xr:uid="{81B92A25-9C65-4002-95C7-4BD5DB7673E3}"/>
+    <cellStyle name="Normal 15 3" xfId="107" xr:uid="{1E5A1FCA-B69F-4881-9928-7A26526F8C57}"/>
+    <cellStyle name="Normal 16" xfId="76" xr:uid="{BC1BAF07-6AA8-4F08-96AF-8F308C43C09F}"/>
+    <cellStyle name="Normal 16 2" xfId="92" xr:uid="{ECBF70DD-7A06-4E85-BADF-503057319A0E}"/>
+    <cellStyle name="Normal 16 3" xfId="116" xr:uid="{467F644D-BB85-4B08-97E3-B784FD8906F9}"/>
+    <cellStyle name="Normal 17" xfId="65" xr:uid="{4C55BAD4-5D3B-4168-8E0D-B2F0D1302E88}"/>
+    <cellStyle name="Normal 17 2" xfId="86" xr:uid="{3EA8F5C8-766E-4115-A72F-9B60FFFF0E3C}"/>
+    <cellStyle name="Normal 17 3" xfId="108" xr:uid="{D96772FF-C76E-4FB4-8686-7D82CE67DF0F}"/>
+    <cellStyle name="Normal 18" xfId="77" xr:uid="{C766CE6D-523E-4DC9-8BD1-3E77EF9686D4}"/>
+    <cellStyle name="Normal 18 2" xfId="94" xr:uid="{68D55529-B3EC-470F-9676-FFA0589D16D4}"/>
+    <cellStyle name="Normal 18 3" xfId="117" xr:uid="{23A956A5-0127-4134-A5CA-F23D875986D5}"/>
+    <cellStyle name="Normal 19" xfId="66" xr:uid="{8529789B-7394-4584-A555-53A673F3E761}"/>
+    <cellStyle name="Normal 19 2" xfId="87" xr:uid="{0F78F8D6-DD86-45D5-86D7-2423E80E2016}"/>
+    <cellStyle name="Normal 19 3" xfId="109" xr:uid="{305FF99C-AC46-43C4-AFC7-0F5795FDDC94}"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal 2 107 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Normal 2 107 4 2" xfId="55" xr:uid="{B2DB35DF-C7BE-4DED-A35C-BE4BC3969093}"/>
@@ -627,14 +1092,46 @@
     <cellStyle name="Normal 2 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Normal 2 5 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Normal 2 5 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 5 3 2" xfId="70" xr:uid="{F691B551-AD2F-4FA8-9977-A86800E3657A}"/>
+    <cellStyle name="Normal 2 5 3 3" xfId="101" xr:uid="{68161F52-AF54-4E65-BDB5-3BE82A620D00}"/>
     <cellStyle name="Normal 2 5 4" xfId="50" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal 2 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="69" xr:uid="{D027DDF4-29DB-45ED-9AF0-68A8039A366C}"/>
+    <cellStyle name="Normal 2 6 3" xfId="100" xr:uid="{C6A6B47D-290B-475C-AC83-D5B08F7BF425}"/>
+    <cellStyle name="Normal 20" xfId="78" xr:uid="{F0D09390-1995-4CBE-87FE-F032360599DC}"/>
+    <cellStyle name="Normal 20 2" xfId="95" xr:uid="{5D9D94EA-2E93-449B-A967-4660878057B9}"/>
+    <cellStyle name="Normal 20 3" xfId="118" xr:uid="{693C5B5B-A3D2-4FBE-AAC1-55CF192B6105}"/>
+    <cellStyle name="Normal 21" xfId="59" xr:uid="{5566C7DD-5565-4E79-AFE2-7F1F588D66BF}"/>
+    <cellStyle name="Normal 21 2" xfId="80" xr:uid="{EEC96341-6950-45CE-8517-05CBA5BC3C17}"/>
+    <cellStyle name="Normal 21 3" xfId="102" xr:uid="{17D15D96-709C-491A-8A6A-B68AD404E8C2}"/>
+    <cellStyle name="Normal 22" xfId="79" xr:uid="{F74FC32D-24A8-495C-BEAB-C8AAD64EE9CF}"/>
+    <cellStyle name="Normal 22 2" xfId="93" xr:uid="{9CEC1D95-4D64-4DD2-A30F-0ED371DE6A28}"/>
+    <cellStyle name="Normal 22 3" xfId="119" xr:uid="{9D0C3DAF-412B-47D6-9E41-81D495292305}"/>
+    <cellStyle name="Normal 23" xfId="68" xr:uid="{41CB6EB5-1E56-4FAF-BCE7-2A27C937AADF}"/>
+    <cellStyle name="Normal 23 2" xfId="97" xr:uid="{727AB30D-8B1C-45E3-8CFA-83F952F59B20}"/>
+    <cellStyle name="Normal 23 3" xfId="111" xr:uid="{01013124-5501-49FF-843F-8416DF027D50}"/>
+    <cellStyle name="Normal 24" xfId="89" xr:uid="{8481C4A7-012F-4DED-A993-CBB56117B430}"/>
+    <cellStyle name="Normal 24 2" xfId="99" xr:uid="{7F702CC1-1B95-4718-AF4C-877318C089F7}"/>
+    <cellStyle name="Normal 24 3" xfId="120" xr:uid="{0B8F7023-C005-43AB-BAC1-26DB29136E75}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Normal 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Normal 4 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Normal 5" xfId="47" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Normal 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 7" xfId="71" xr:uid="{A802A2EA-CDEB-43CC-9A89-16B723F0224F}"/>
+    <cellStyle name="Normal 7 2" xfId="98" xr:uid="{32A1E19D-E9B8-4793-B8A2-123413CDE5C1}"/>
+    <cellStyle name="Normal 7 3" xfId="112" xr:uid="{0F5206CD-2DB0-48DA-913A-B19DE71E60E7}"/>
+    <cellStyle name="Normal 8" xfId="74" xr:uid="{BB2D1B21-80FD-4262-913B-348EAAEAC5EF}"/>
+    <cellStyle name="Normal 8 2" xfId="90" xr:uid="{7D2AC9C4-C1A9-454B-996B-A000715CFF4C}"/>
+    <cellStyle name="Normal 8 3" xfId="114" xr:uid="{26DECE28-D797-427A-9904-ACDF4A3EC44C}"/>
+    <cellStyle name="Normal 9" xfId="63" xr:uid="{DDB53BE9-5F10-4B1D-BA4A-0BA1A7D010D9}"/>
+    <cellStyle name="Normal 9 2" xfId="84" xr:uid="{583F96C3-7199-4107-B088-E6116307E5DD}"/>
+    <cellStyle name="Normal 9 3" xfId="106" xr:uid="{D8228313-DC06-41E7-AA4D-1F9314A054CB}"/>
+    <cellStyle name="Percent 2" xfId="72" xr:uid="{01F2FBDA-C3EB-4E68-BCF3-E8997F0484A7}"/>
+    <cellStyle name="Percent 2 2" xfId="96" xr:uid="{3B2AACAF-E0B1-4090-A727-863EB4C2F87C}"/>
+    <cellStyle name="Percent 2 3" xfId="113" xr:uid="{28C9EE0E-2D25-48DE-BE35-5FBED1F2C97B}"/>
+    <cellStyle name="Total 2" xfId="73" xr:uid="{B3717678-D75F-48C5-95B0-93F7CEE792CC}"/>
     <cellStyle name="เครื่องหมายจุลภาค [0]_N1222H#" xfId="26" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="เครื่องหมายจุลภาค_N1222H#" xfId="27" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="เครื่องหมายสกุลเงิน [0]_N1222H#" xfId="28" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
@@ -933,11 +1430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H173"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -958,22 +1455,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>1</v>
@@ -983,23 +1480,23 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1007,25 +1504,25 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1033,23 +1530,23 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1057,23 +1554,23 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1081,25 +1578,25 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1107,23 +1604,23 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1131,25 +1628,25 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="E8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1157,23 +1654,23 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1181,23 +1678,23 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="F10" s="30">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1205,25 +1702,25 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1231,23 +1728,23 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1255,23 +1752,23 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1279,23 +1776,23 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1303,23 +1800,23 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1327,23 +1824,23 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1351,23 +1848,23 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1375,23 +1872,23 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1399,23 +1896,23 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1423,23 +1920,23 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1447,23 +1944,23 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="17">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1471,23 +1968,23 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1495,23 +1992,23 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="17">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1519,23 +2016,23 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1543,23 +2040,23 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="17">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1567,23 +2064,23 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1591,23 +2088,23 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="17">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1615,23 +2112,23 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="17">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="F28" s="30">
+        <v>1</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1639,23 +2136,23 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="17">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1663,23 +2160,23 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="17">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1687,23 +2184,23 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="17">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="19" t="s">
+      <c r="F31" s="30">
+        <v>1</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1711,23 +2208,23 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="30">
+        <v>1</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1735,23 +2232,23 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="17">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F33" s="30">
+        <v>1</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1759,23 +2256,23 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="17">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="30">
+        <v>1</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1783,23 +2280,23 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="F35" s="30">
+        <v>1</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1807,23 +2304,23 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="17">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="30">
+        <v>1</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1831,23 +2328,23 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="17">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="F37" s="30">
+        <v>1</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1855,23 +2352,23 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="17">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="30">
+        <v>1</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1879,23 +2376,23 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="17">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="30">
+        <v>1</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1903,23 +2400,23 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="17">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1927,23 +2424,23 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="17">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1951,23 +2448,23 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="17">
-        <v>1</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19" t="s">
+      <c r="F42" s="30">
+        <v>1</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1975,23 +2472,23 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="17">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="F43" s="30">
+        <v>1</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1999,23 +2496,23 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="19" t="s">
+      <c r="F44" s="30">
+        <v>1</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2023,23 +2520,23 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="17">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="F45" s="30">
+        <v>1</v>
+      </c>
+      <c r="G45" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2047,23 +2544,23 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="17">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="30">
+        <v>1</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2071,23 +2568,23 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="17">
-        <v>1</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="30">
+        <v>1</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2095,23 +2592,23 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="17">
-        <v>1</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2119,23 +2616,23 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="16" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="17">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="s">
+      <c r="F49" s="30">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2143,23 +2640,23 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="19" t="s">
+      <c r="F50" s="30">
+        <v>1</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2167,23 +2664,23 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="17">
-        <v>1</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="19" t="s">
+      <c r="F51" s="30">
+        <v>1</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2191,23 +2688,23 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="17">
-        <v>1</v>
-      </c>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="30">
+        <v>1</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2215,23 +2712,23 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="16" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="17">
-        <v>1</v>
-      </c>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="30">
+        <v>1</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2239,23 +2736,23 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="17">
-        <v>1</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="30">
+        <v>1</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2263,23 +2760,23 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="17">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18" t="s">
+      <c r="F55" s="30">
+        <v>1</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2287,23 +2784,23 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="16" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="17">
-        <v>1</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19" t="s">
+      <c r="F56" s="30">
+        <v>1</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2311,23 +2808,23 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="16" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="17">
-        <v>1</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="19" t="s">
+      <c r="F57" s="30">
+        <v>1</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2335,23 +2832,23 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="16" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="17">
-        <v>1</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="19" t="s">
+      <c r="F58" s="30">
+        <v>1</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2359,23 +2856,23 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="16" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="17">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2383,23 +2880,23 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="16" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="17">
-        <v>1</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="30">
+        <v>1</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2407,23 +2904,23 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="16" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="17">
-        <v>1</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="F61" s="30">
+        <v>1</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2431,23 +2928,23 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="16" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="17">
-        <v>1</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="F62" s="30">
+        <v>1</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2455,23 +2952,23 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="16" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="17">
-        <v>1</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="19" t="s">
+      <c r="F63" s="30">
+        <v>1</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2479,23 +2976,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="17">
-        <v>1</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="19" t="s">
+      <c r="F64" s="30">
+        <v>1</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2503,23 +3000,23 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="16" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="17">
-        <v>1</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="19" t="s">
+      <c r="F65" s="30">
+        <v>1</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2527,23 +3024,23 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="16" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="17">
-        <v>1</v>
-      </c>
-      <c r="G66" s="18" t="s">
+      <c r="F66" s="30">
+        <v>1</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2551,23 +3048,23 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="16" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="17">
-        <v>1</v>
-      </c>
-      <c r="G67" s="18" t="s">
+      <c r="F67" s="30">
+        <v>1</v>
+      </c>
+      <c r="G67" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2575,23 +3072,23 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="16" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="17">
-        <v>1</v>
-      </c>
-      <c r="G68" s="18" t="s">
+      <c r="F68" s="30">
+        <v>1</v>
+      </c>
+      <c r="G68" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2599,23 +3096,23 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="16" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="17">
-        <v>1</v>
-      </c>
-      <c r="G69" s="18" t="s">
+      <c r="F69" s="30">
+        <v>1</v>
+      </c>
+      <c r="G69" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2623,23 +3120,23 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="16" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="17">
-        <v>1</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="19" t="s">
+      <c r="F70" s="30">
+        <v>1</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2647,23 +3144,23 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="17">
-        <v>1</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="19" t="s">
+      <c r="F71" s="30">
+        <v>1</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2671,23 +3168,23 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="17">
-        <v>1</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="19" t="s">
+      <c r="F72" s="30">
+        <v>1</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2695,23 +3192,23 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="16" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="17">
-        <v>1</v>
-      </c>
-      <c r="G73" s="18" t="s">
+      <c r="F73" s="30">
+        <v>1</v>
+      </c>
+      <c r="G73" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2719,23 +3216,23 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="16" t="s">
+      <c r="D74" s="26"/>
+      <c r="E74" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="17">
-        <v>1</v>
-      </c>
-      <c r="G74" s="18" t="s">
+      <c r="F74" s="30">
+        <v>1</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2743,23 +3240,23 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="16" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="17">
-        <v>1</v>
-      </c>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="30">
+        <v>1</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2767,23 +3264,23 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="16" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="17">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="F76" s="30">
+        <v>1</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2791,23 +3288,23 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="16" t="s">
+      <c r="D77" s="26"/>
+      <c r="E77" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="17">
-        <v>1</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="19" t="s">
+      <c r="F77" s="30">
+        <v>1</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2815,23 +3312,23 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="16" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="17">
-        <v>1</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" s="19" t="s">
+      <c r="F78" s="30">
+        <v>1</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2839,23 +3336,23 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="16" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="17">
-        <v>1</v>
-      </c>
-      <c r="G79" s="18" t="s">
+      <c r="F79" s="30">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2863,23 +3360,23 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="16" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F80" s="17">
-        <v>1</v>
-      </c>
-      <c r="G80" s="18" t="s">
+      <c r="F80" s="30">
+        <v>1</v>
+      </c>
+      <c r="G80" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2887,23 +3384,23 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="16" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="17">
-        <v>1</v>
-      </c>
-      <c r="G81" s="18" t="s">
+      <c r="F81" s="30">
+        <v>1</v>
+      </c>
+      <c r="G81" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2911,23 +3408,23 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="16" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="17">
-        <v>1</v>
-      </c>
-      <c r="G82" s="18" t="s">
+      <c r="F82" s="30">
+        <v>1</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="H82" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2935,23 +3432,23 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" s="17">
-        <v>1</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="19" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="30">
+        <v>1</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2959,23 +3456,23 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="16" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="17">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="30">
+        <v>1</v>
+      </c>
+      <c r="G84" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H84" s="19" t="s">
+      <c r="H84" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2983,23 +3480,23 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F85" s="17">
-        <v>1</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H85" s="19" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="30">
+        <v>1</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3007,23 +3504,23 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="16" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="17">
-        <v>1</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" s="19" t="s">
+      <c r="F86" s="30">
+        <v>1</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3031,23 +3528,23 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="16" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="17">
-        <v>1</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="30">
+        <v>1</v>
+      </c>
+      <c r="G87" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H87" s="19" t="s">
+      <c r="H87" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3055,23 +3552,23 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="16" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="17">
-        <v>1</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88" s="19" t="s">
+      <c r="F88" s="30">
+        <v>1</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3079,23 +3576,23 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="16" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="17">
-        <v>1</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="19" t="s">
+      <c r="F89" s="30">
+        <v>1</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3103,23 +3600,23 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="16" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="17">
-        <v>1</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H90" s="19" t="s">
+      <c r="F90" s="30">
+        <v>1</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3127,23 +3624,23 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="16" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="17">
-        <v>1</v>
-      </c>
-      <c r="G91" s="18" t="s">
+      <c r="F91" s="30">
+        <v>1</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3151,23 +3648,23 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="16" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="17">
-        <v>1</v>
-      </c>
-      <c r="G92" s="18" t="s">
+      <c r="F92" s="30">
+        <v>1</v>
+      </c>
+      <c r="G92" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3175,23 +3672,23 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="16" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="17">
-        <v>1</v>
-      </c>
-      <c r="G93" s="18" t="s">
+      <c r="F93" s="30">
+        <v>1</v>
+      </c>
+      <c r="G93" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3199,23 +3696,23 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="16" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="17">
-        <v>1</v>
-      </c>
-      <c r="G94" s="18" t="s">
+      <c r="F94" s="30">
+        <v>1</v>
+      </c>
+      <c r="G94" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3223,23 +3720,23 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F95" s="17">
-        <v>1</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H95" s="19" t="s">
+      <c r="D95" s="26"/>
+      <c r="E95" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="30">
+        <v>1</v>
+      </c>
+      <c r="G95" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3247,23 +3744,23 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="16" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="17">
-        <v>1</v>
-      </c>
-      <c r="G96" s="18" t="s">
+      <c r="F96" s="30">
+        <v>1</v>
+      </c>
+      <c r="G96" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3271,23 +3768,23 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="16" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="17">
-        <v>1</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97" s="19" t="s">
+      <c r="F97" s="30">
+        <v>1</v>
+      </c>
+      <c r="G97" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3295,23 +3792,23 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="16" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="17">
-        <v>1</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" s="19" t="s">
+      <c r="F98" s="30">
+        <v>1</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3319,23 +3816,23 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="16" t="s">
+      <c r="D99" s="26"/>
+      <c r="E99" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="17">
-        <v>1</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H99" s="19" t="s">
+      <c r="F99" s="30">
+        <v>1</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3343,23 +3840,23 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="16" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="17">
-        <v>1</v>
-      </c>
-      <c r="G100" s="18" t="s">
+      <c r="F100" s="30">
+        <v>1</v>
+      </c>
+      <c r="G100" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H100" s="19" t="s">
+      <c r="H100" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3367,23 +3864,23 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="16" t="s">
+      <c r="D101" s="26"/>
+      <c r="E101" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F101" s="17">
-        <v>1</v>
-      </c>
-      <c r="G101" s="18" t="s">
+      <c r="F101" s="30">
+        <v>1</v>
+      </c>
+      <c r="G101" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3391,23 +3888,23 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="16" t="s">
+      <c r="D102" s="26"/>
+      <c r="E102" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="17">
-        <v>1</v>
-      </c>
-      <c r="G102" s="18" t="s">
+      <c r="F102" s="30">
+        <v>1</v>
+      </c>
+      <c r="G102" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3415,23 +3912,23 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="16" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F103" s="17">
-        <v>1</v>
-      </c>
-      <c r="G103" s="18" t="s">
+      <c r="F103" s="30">
+        <v>1</v>
+      </c>
+      <c r="G103" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3439,23 +3936,23 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="16" t="s">
+      <c r="D104" s="26"/>
+      <c r="E104" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="17">
-        <v>1</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104" s="19" t="s">
+      <c r="F104" s="30">
+        <v>1</v>
+      </c>
+      <c r="G104" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3463,23 +3960,23 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="16" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="17">
-        <v>1</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" s="19" t="s">
+      <c r="F105" s="30">
+        <v>1</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3487,23 +3984,23 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="16" t="s">
+      <c r="D106" s="26"/>
+      <c r="E106" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="17">
-        <v>1</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H106" s="19" t="s">
+      <c r="F106" s="30">
+        <v>1</v>
+      </c>
+      <c r="G106" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3511,23 +4008,23 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="16" t="s">
+      <c r="D107" s="26"/>
+      <c r="E107" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F107" s="17">
-        <v>1</v>
-      </c>
-      <c r="G107" s="18" t="s">
+      <c r="F107" s="30">
+        <v>1</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3535,23 +4032,23 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="16" t="s">
+      <c r="D108" s="26"/>
+      <c r="E108" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F108" s="17">
-        <v>1</v>
-      </c>
-      <c r="G108" s="18" t="s">
+      <c r="F108" s="30">
+        <v>1</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="H108" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3559,23 +4056,23 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="16" t="s">
+      <c r="D109" s="26"/>
+      <c r="E109" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F109" s="17">
-        <v>1</v>
-      </c>
-      <c r="G109" s="18" t="s">
+      <c r="F109" s="30">
+        <v>1</v>
+      </c>
+      <c r="G109" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H109" s="19" t="s">
+      <c r="H109" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3583,23 +4080,23 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="16" t="s">
+      <c r="D110" s="26"/>
+      <c r="E110" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F110" s="17">
-        <v>1</v>
-      </c>
-      <c r="G110" s="18" t="s">
+      <c r="F110" s="30">
+        <v>1</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H110" s="19" t="s">
+      <c r="H110" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3607,23 +4104,23 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="14"/>
-      <c r="E111" s="16" t="s">
+      <c r="D111" s="26"/>
+      <c r="E111" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="17">
-        <v>1</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H111" s="19" t="s">
+      <c r="F111" s="30">
+        <v>1</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H111" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3631,23 +4128,23 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="16" t="s">
+      <c r="D112" s="26"/>
+      <c r="E112" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F112" s="17">
-        <v>1</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H112" s="19" t="s">
+      <c r="F112" s="30">
+        <v>1</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3655,23 +4152,23 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="16" t="s">
+      <c r="D113" s="26"/>
+      <c r="E113" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F113" s="17">
-        <v>1</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H113" s="19" t="s">
+      <c r="F113" s="30">
+        <v>1</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3679,23 +4176,23 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="16" t="s">
+      <c r="D114" s="26"/>
+      <c r="E114" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F114" s="17">
-        <v>1</v>
-      </c>
-      <c r="G114" s="18" t="s">
+      <c r="F114" s="30">
+        <v>1</v>
+      </c>
+      <c r="G114" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H114" s="19" t="s">
+      <c r="H114" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3703,23 +4200,23 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="14"/>
-      <c r="E115" s="16" t="s">
+      <c r="D115" s="26"/>
+      <c r="E115" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F115" s="17">
-        <v>1</v>
-      </c>
-      <c r="G115" s="18" t="s">
+      <c r="F115" s="30">
+        <v>1</v>
+      </c>
+      <c r="G115" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H115" s="19" t="s">
+      <c r="H115" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3727,23 +4224,23 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="26"/>
+      <c r="E116" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F116" s="17">
-        <v>1</v>
-      </c>
-      <c r="G116" s="18" t="s">
+      <c r="F116" s="30">
+        <v>1</v>
+      </c>
+      <c r="G116" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H116" s="19" t="s">
+      <c r="H116" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3751,23 +4248,23 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="14"/>
-      <c r="E117" s="16" t="s">
+      <c r="D117" s="26"/>
+      <c r="E117" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F117" s="17">
-        <v>1</v>
-      </c>
-      <c r="G117" s="18" t="s">
+      <c r="F117" s="30">
+        <v>1</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="H117" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3775,23 +4272,23 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F118" s="17">
-        <v>1</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H118" s="19" t="s">
+      <c r="D118" s="26"/>
+      <c r="E118" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F118" s="30">
+        <v>1</v>
+      </c>
+      <c r="G118" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3799,23 +4296,23 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D119" s="14"/>
-      <c r="E119" s="16" t="s">
+      <c r="D119" s="26"/>
+      <c r="E119" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F119" s="17">
-        <v>1</v>
-      </c>
-      <c r="G119" s="18" t="s">
+      <c r="F119" s="30">
+        <v>1</v>
+      </c>
+      <c r="G119" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3823,23 +4320,23 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="26"/>
+      <c r="E120" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="17">
-        <v>1</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H120" s="19" t="s">
+      <c r="F120" s="30">
+        <v>1</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3847,23 +4344,23 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="16" t="s">
+      <c r="D121" s="26"/>
+      <c r="E121" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F121" s="17">
-        <v>1</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H121" s="19" t="s">
+      <c r="F121" s="30">
+        <v>1</v>
+      </c>
+      <c r="G121" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3871,23 +4368,23 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="16" t="s">
+      <c r="D122" s="26"/>
+      <c r="E122" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F122" s="17">
-        <v>1</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H122" s="19" t="s">
+      <c r="F122" s="30">
+        <v>1</v>
+      </c>
+      <c r="G122" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3895,23 +4392,23 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="16" t="s">
+      <c r="D123" s="26"/>
+      <c r="E123" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F123" s="17">
-        <v>1</v>
-      </c>
-      <c r="G123" s="18" t="s">
+      <c r="F123" s="30">
+        <v>1</v>
+      </c>
+      <c r="G123" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3919,23 +4416,23 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D124" s="14"/>
-      <c r="E124" s="16" t="s">
+      <c r="D124" s="26"/>
+      <c r="E124" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F124" s="17">
-        <v>1</v>
-      </c>
-      <c r="G124" s="18" t="s">
+      <c r="F124" s="30">
+        <v>1</v>
+      </c>
+      <c r="G124" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H124" s="19" t="s">
+      <c r="H124" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3943,23 +4440,23 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="14"/>
-      <c r="E125" s="16" t="s">
+      <c r="D125" s="26"/>
+      <c r="E125" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F125" s="17">
-        <v>1</v>
-      </c>
-      <c r="G125" s="18" t="s">
+      <c r="F125" s="30">
+        <v>1</v>
+      </c>
+      <c r="G125" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3967,23 +4464,23 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D126" s="14"/>
-      <c r="E126" s="16" t="s">
+      <c r="D126" s="26"/>
+      <c r="E126" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F126" s="17">
-        <v>1</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" s="19" t="s">
+      <c r="F126" s="30">
+        <v>1</v>
+      </c>
+      <c r="G126" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3991,23 +4488,23 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="26"/>
+      <c r="E127" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="30">
         <v>2</v>
       </c>
-      <c r="G127" s="18" t="s">
+      <c r="G127" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="H127" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4015,23 +4512,23 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D128" s="14"/>
-      <c r="E128" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="17">
+      <c r="D128" s="26"/>
+      <c r="E128" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="30">
         <v>2</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="H128" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4039,23 +4536,23 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="16" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="30">
         <v>2</v>
       </c>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="H129" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4063,23 +4560,23 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="16" t="s">
+      <c r="C130" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="26"/>
+      <c r="E130" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F130" s="17">
-        <v>1</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H130" s="19" t="s">
+      <c r="F130" s="30">
+        <v>1</v>
+      </c>
+      <c r="G130" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4087,23 +4584,23 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="26"/>
+      <c r="E131" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F131" s="17">
-        <v>1</v>
-      </c>
-      <c r="G131" s="18" t="s">
+      <c r="F131" s="30">
+        <v>1</v>
+      </c>
+      <c r="G131" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4111,23 +4608,23 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="16" t="s">
+      <c r="D132" s="26"/>
+      <c r="E132" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F132" s="17">
-        <v>1</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" s="19" t="s">
+      <c r="F132" s="30">
+        <v>1</v>
+      </c>
+      <c r="G132" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4135,23 +4632,23 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="16" t="s">
+      <c r="D133" s="26"/>
+      <c r="E133" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F133" s="17">
-        <v>1</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H133" s="19" t="s">
+      <c r="F133" s="30">
+        <v>1</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4159,23 +4656,23 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="16" t="s">
+      <c r="D134" s="26"/>
+      <c r="E134" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F134" s="17">
-        <v>1</v>
-      </c>
-      <c r="G134" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H134" s="19" t="s">
+      <c r="F134" s="30">
+        <v>1</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4183,23 +4680,23 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="14"/>
-      <c r="E135" s="16" t="s">
+      <c r="D135" s="26"/>
+      <c r="E135" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F135" s="17">
-        <v>1</v>
-      </c>
-      <c r="G135" s="18" t="s">
+      <c r="F135" s="30">
+        <v>1</v>
+      </c>
+      <c r="G135" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H135" s="19" t="s">
+      <c r="H135" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4207,23 +4704,23 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D136" s="14"/>
-      <c r="E136" s="16" t="s">
+      <c r="D136" s="26"/>
+      <c r="E136" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F136" s="17">
-        <v>1</v>
-      </c>
-      <c r="G136" s="18" t="s">
+      <c r="F136" s="30">
+        <v>1</v>
+      </c>
+      <c r="G136" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="19" t="s">
+      <c r="H136" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4231,23 +4728,23 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D137" s="14"/>
-      <c r="E137" s="16" t="s">
+      <c r="D137" s="26"/>
+      <c r="E137" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F137" s="17">
-        <v>1</v>
-      </c>
-      <c r="G137" s="18" t="s">
+      <c r="F137" s="30">
+        <v>1</v>
+      </c>
+      <c r="G137" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H137" s="19" t="s">
+      <c r="H137" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4255,23 +4752,23 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="14"/>
-      <c r="E138" s="16" t="s">
+      <c r="D138" s="26"/>
+      <c r="E138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="17">
-        <v>1</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H138" s="19" t="s">
+      <c r="F138" s="30">
+        <v>1</v>
+      </c>
+      <c r="G138" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H138" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4279,23 +4776,23 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D139" s="14"/>
-      <c r="E139" s="16" t="s">
+      <c r="D139" s="26"/>
+      <c r="E139" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="30">
         <v>2</v>
       </c>
-      <c r="G139" s="18" t="s">
+      <c r="G139" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="H139" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4303,23 +4800,23 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D140" s="14"/>
-      <c r="E140" s="16" t="s">
+      <c r="D140" s="26"/>
+      <c r="E140" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F140" s="17">
+      <c r="F140" s="30">
         <v>2</v>
       </c>
-      <c r="G140" s="18" t="s">
+      <c r="G140" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H140" s="19" t="s">
+      <c r="H140" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4327,23 +4824,23 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="16" t="s">
+      <c r="D141" s="26"/>
+      <c r="E141" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="30">
         <v>2</v>
       </c>
-      <c r="G141" s="18" t="s">
+      <c r="G141" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H141" s="19" t="s">
+      <c r="H141" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4351,23 +4848,23 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F142" s="17">
-        <v>1</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H142" s="19" t="s">
+      <c r="D142" s="26"/>
+      <c r="E142" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F142" s="30">
+        <v>1</v>
+      </c>
+      <c r="G142" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4375,23 +4872,23 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D143" s="14"/>
-      <c r="E143" s="16" t="s">
+      <c r="D143" s="26"/>
+      <c r="E143" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F143" s="17">
-        <v>1</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H143" s="19" t="s">
+      <c r="F143" s="30">
+        <v>1</v>
+      </c>
+      <c r="G143" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4399,23 +4896,23 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="16" t="s">
+      <c r="D144" s="26"/>
+      <c r="E144" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F144" s="17">
-        <v>1</v>
-      </c>
-      <c r="G144" s="18" t="s">
+      <c r="F144" s="30">
+        <v>1</v>
+      </c>
+      <c r="G144" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H144" s="19" t="s">
+      <c r="H144" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4423,23 +4920,23 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="16" t="s">
+      <c r="D145" s="26"/>
+      <c r="E145" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="17">
-        <v>1</v>
-      </c>
-      <c r="G145" s="18" t="s">
+      <c r="F145" s="30">
+        <v>1</v>
+      </c>
+      <c r="G145" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H145" s="19" t="s">
+      <c r="H145" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4447,23 +4944,23 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D146" s="14"/>
-      <c r="E146" s="16" t="s">
+      <c r="D146" s="26"/>
+      <c r="E146" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F146" s="17">
-        <v>1</v>
-      </c>
-      <c r="G146" s="18" t="s">
+      <c r="F146" s="30">
+        <v>1</v>
+      </c>
+      <c r="G146" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H146" s="19" t="s">
+      <c r="H146" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4471,23 +4968,23 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D147" s="14"/>
-      <c r="E147" s="16" t="s">
+      <c r="D147" s="26"/>
+      <c r="E147" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F147" s="17">
-        <v>1</v>
-      </c>
-      <c r="G147" s="18" t="s">
+      <c r="F147" s="30">
+        <v>1</v>
+      </c>
+      <c r="G147" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4495,23 +4992,23 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D148" s="14"/>
-      <c r="E148" s="16" t="s">
+      <c r="D148" s="26"/>
+      <c r="E148" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F148" s="17">
-        <v>1</v>
-      </c>
-      <c r="G148" s="18" t="s">
+      <c r="F148" s="30">
+        <v>1</v>
+      </c>
+      <c r="G148" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H148" s="19" t="s">
+      <c r="H148" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4519,23 +5016,23 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="14"/>
-      <c r="E149" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F149" s="17">
-        <v>1</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H149" s="19" t="s">
+      <c r="D149" s="26"/>
+      <c r="E149" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F149" s="30">
+        <v>1</v>
+      </c>
+      <c r="G149" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4543,23 +5040,23 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D150" s="14"/>
-      <c r="E150" s="16" t="s">
+      <c r="D150" s="26"/>
+      <c r="E150" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F150" s="17">
-        <v>1</v>
-      </c>
-      <c r="G150" s="18" t="s">
+      <c r="F150" s="30">
+        <v>1</v>
+      </c>
+      <c r="G150" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H150" s="19" t="s">
+      <c r="H150" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4567,23 +5064,23 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D151" s="14"/>
-      <c r="E151" s="16" t="s">
+      <c r="D151" s="26"/>
+      <c r="E151" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F151" s="17">
-        <v>1</v>
-      </c>
-      <c r="G151" s="18" t="s">
+      <c r="F151" s="30">
+        <v>1</v>
+      </c>
+      <c r="G151" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H151" s="19" t="s">
+      <c r="H151" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4591,23 +5088,23 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D152" s="14"/>
-      <c r="E152" s="16" t="s">
+      <c r="D152" s="26"/>
+      <c r="E152" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F152" s="17">
-        <v>1</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152" s="19" t="s">
+      <c r="F152" s="30">
+        <v>1</v>
+      </c>
+      <c r="G152" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4615,23 +5112,23 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D153" s="14"/>
-      <c r="E153" s="16" t="s">
+      <c r="D153" s="26"/>
+      <c r="E153" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F153" s="17">
-        <v>1</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H153" s="19" t="s">
+      <c r="F153" s="30">
+        <v>1</v>
+      </c>
+      <c r="G153" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4639,23 +5136,23 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D154" s="14"/>
-      <c r="E154" s="16" t="s">
+      <c r="D154" s="26"/>
+      <c r="E154" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F154" s="17">
-        <v>1</v>
-      </c>
-      <c r="G154" s="18" t="s">
+      <c r="F154" s="30">
+        <v>1</v>
+      </c>
+      <c r="G154" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H154" s="19" t="s">
+      <c r="H154" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4663,23 +5160,23 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="16" t="s">
+      <c r="D155" s="26"/>
+      <c r="E155" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F155" s="17">
-        <v>1</v>
-      </c>
-      <c r="G155" s="18" t="s">
+      <c r="F155" s="30">
+        <v>1</v>
+      </c>
+      <c r="G155" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H155" s="19" t="s">
+      <c r="H155" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4687,23 +5184,23 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D156" s="14"/>
-      <c r="E156" s="16" t="s">
+      <c r="D156" s="26"/>
+      <c r="E156" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F156" s="17">
-        <v>1</v>
-      </c>
-      <c r="G156" s="18" t="s">
+      <c r="F156" s="30">
+        <v>1</v>
+      </c>
+      <c r="G156" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H156" s="19" t="s">
+      <c r="H156" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4711,23 +5208,23 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="14"/>
-      <c r="E157" s="16" t="s">
+      <c r="D157" s="26"/>
+      <c r="E157" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="17">
-        <v>1</v>
-      </c>
-      <c r="G157" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H157" s="19" t="s">
+      <c r="F157" s="30">
+        <v>1</v>
+      </c>
+      <c r="G157" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H157" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4735,23 +5232,23 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C158" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D158" s="14"/>
-      <c r="E158" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F158" s="17">
+      <c r="C158" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" s="26"/>
+      <c r="E158" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" s="30">
         <v>2</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H158" s="19" t="s">
+      <c r="H158" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4759,23 +5256,23 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="14"/>
-      <c r="E159" s="16" t="s">
+      <c r="D159" s="26"/>
+      <c r="E159" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F159" s="17">
+      <c r="F159" s="30">
         <v>2</v>
       </c>
-      <c r="G159" s="18" t="s">
+      <c r="G159" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H159" s="19" t="s">
+      <c r="H159" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4783,23 +5280,23 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="14"/>
-      <c r="E160" s="16" t="s">
+      <c r="D160" s="26"/>
+      <c r="E160" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F160" s="17">
-        <v>1</v>
-      </c>
-      <c r="G160" s="18" t="s">
+      <c r="F160" s="30">
+        <v>2</v>
+      </c>
+      <c r="G160" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H160" s="19" t="s">
+      <c r="H160" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4807,23 +5304,23 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D161" s="14"/>
-      <c r="E161" s="16" t="s">
+      <c r="D161" s="26"/>
+      <c r="E161" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F161" s="17">
-        <v>1</v>
-      </c>
-      <c r="G161" s="18" t="s">
+      <c r="F161" s="30">
+        <v>2</v>
+      </c>
+      <c r="G161" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H161" s="19" t="s">
+      <c r="H161" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4831,23 +5328,23 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="14"/>
-      <c r="E162" s="16" t="s">
+      <c r="D162" s="26"/>
+      <c r="E162" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F162" s="17">
-        <v>1</v>
-      </c>
-      <c r="G162" s="18" t="s">
+      <c r="F162" s="30">
+        <v>1</v>
+      </c>
+      <c r="G162" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H162" s="19" t="s">
+      <c r="H162" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4855,23 +5352,23 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="14"/>
-      <c r="E163" s="16" t="s">
+      <c r="D163" s="26"/>
+      <c r="E163" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="17">
-        <v>1</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163" s="19" t="s">
+      <c r="F163" s="30">
+        <v>1</v>
+      </c>
+      <c r="G163" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H163" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4879,23 +5376,23 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D164" s="14"/>
-      <c r="E164" s="16" t="s">
+      <c r="D164" s="26"/>
+      <c r="E164" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F164" s="17">
-        <v>1</v>
-      </c>
-      <c r="G164" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H164" s="19" t="s">
+      <c r="F164" s="30">
+        <v>1</v>
+      </c>
+      <c r="G164" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4903,23 +5400,23 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D165" s="14"/>
-      <c r="E165" s="16" t="s">
+      <c r="D165" s="26"/>
+      <c r="E165" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F165" s="17">
-        <v>1</v>
-      </c>
-      <c r="G165" s="18" t="s">
+      <c r="F165" s="30">
+        <v>1</v>
+      </c>
+      <c r="G165" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H165" s="19" t="s">
+      <c r="H165" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4927,23 +5424,23 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="16" t="s">
+      <c r="D166" s="26"/>
+      <c r="E166" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F166" s="17">
-        <v>1</v>
-      </c>
-      <c r="G166" s="18" t="s">
+      <c r="F166" s="30">
+        <v>1</v>
+      </c>
+      <c r="G166" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H166" s="19" t="s">
+      <c r="H166" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4951,23 +5448,23 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="16" t="s">
+      <c r="D167" s="26"/>
+      <c r="E167" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F167" s="17">
-        <v>1</v>
-      </c>
-      <c r="G167" s="18" t="s">
+      <c r="F167" s="30">
+        <v>1</v>
+      </c>
+      <c r="G167" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H167" s="19" t="s">
+      <c r="H167" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4975,23 +5472,23 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D168" s="14"/>
-      <c r="E168" s="16" t="s">
+      <c r="D168" s="26"/>
+      <c r="E168" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F168" s="17">
-        <v>1</v>
-      </c>
-      <c r="G168" s="18" t="s">
+      <c r="F168" s="30">
+        <v>1</v>
+      </c>
+      <c r="G168" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H168" s="19" t="s">
+      <c r="H168" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4999,23 +5496,23 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D169" s="14"/>
-      <c r="E169" s="16" t="s">
+      <c r="D169" s="26"/>
+      <c r="E169" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F169" s="17">
-        <v>1</v>
-      </c>
-      <c r="G169" s="18" t="s">
+      <c r="F169" s="30">
+        <v>1</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H169" s="19" t="s">
+      <c r="H169" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5023,23 +5520,23 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D170" s="14"/>
-      <c r="E170" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F170" s="17">
-        <v>1</v>
-      </c>
-      <c r="G170" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H170" s="19" t="s">
+      <c r="D170" s="26"/>
+      <c r="E170" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F170" s="30">
+        <v>1</v>
+      </c>
+      <c r="G170" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H170" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5047,23 +5544,23 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D171" s="14"/>
-      <c r="E171" s="16" t="s">
+      <c r="D171" s="26"/>
+      <c r="E171" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F171" s="17">
-        <v>1</v>
-      </c>
-      <c r="G171" s="18" t="s">
+      <c r="F171" s="30">
+        <v>1</v>
+      </c>
+      <c r="G171" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="H171" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5071,23 +5568,23 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D172" s="14"/>
-      <c r="E172" s="16" t="s">
+      <c r="D172" s="26"/>
+      <c r="E172" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F172" s="17">
-        <v>1</v>
-      </c>
-      <c r="G172" s="18" t="s">
+      <c r="F172" s="30">
+        <v>1</v>
+      </c>
+      <c r="G172" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H172" s="19" t="s">
+      <c r="H172" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5095,23 +5592,575 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D173" s="14"/>
-      <c r="E173" s="16" t="s">
+      <c r="D173" s="26"/>
+      <c r="E173" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F173" s="30">
+        <v>1</v>
+      </c>
+      <c r="G173" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15">
+      <c r="B174" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F174" s="33">
+        <v>2</v>
+      </c>
+      <c r="G174" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15">
+      <c r="B175" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" s="26"/>
+      <c r="E175" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F175" s="33">
+        <v>1</v>
+      </c>
+      <c r="G175" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15">
+      <c r="B176" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F173" s="17">
-        <v>1</v>
-      </c>
-      <c r="G173" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H173" s="19" t="s">
+      <c r="C176" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D176" s="26"/>
+      <c r="E176" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F176" s="33">
+        <v>2</v>
+      </c>
+      <c r="G176" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="15">
+      <c r="B177" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" s="26"/>
+      <c r="E177" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F177" s="33">
+        <v>2</v>
+      </c>
+      <c r="G177" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="15">
+      <c r="B178" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F178" s="31">
+        <v>2</v>
+      </c>
+      <c r="G178" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="15">
+      <c r="B179" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D179" s="26"/>
+      <c r="E179" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F179" s="34">
+        <v>2</v>
+      </c>
+      <c r="G179" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15">
+      <c r="B180" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" s="26"/>
+      <c r="E180" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F180" s="34">
+        <v>2</v>
+      </c>
+      <c r="G180" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="15">
+      <c r="B181" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" s="26"/>
+      <c r="E181" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F181" s="34">
+        <v>4</v>
+      </c>
+      <c r="G181" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="15">
+      <c r="B182" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C182" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="26"/>
+      <c r="E182" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F182" s="34">
+        <v>2</v>
+      </c>
+      <c r="G182" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="15">
+      <c r="B183" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C183" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D183" s="26"/>
+      <c r="E183" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F183" s="34">
+        <v>2</v>
+      </c>
+      <c r="G183" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="30">
+      <c r="B184" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F184" s="34">
+        <v>2</v>
+      </c>
+      <c r="G184" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="30">
+      <c r="B185" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D185" s="26"/>
+      <c r="E185" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F185" s="30">
+        <v>1</v>
+      </c>
+      <c r="G185" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="30">
+      <c r="B186" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" s="26"/>
+      <c r="E186" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F186" s="30">
+        <v>6</v>
+      </c>
+      <c r="G186" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="15">
+      <c r="B187" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D187" s="26"/>
+      <c r="E187" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F187" s="33">
+        <v>2</v>
+      </c>
+      <c r="G187" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="30">
+      <c r="B188" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C188" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F188" s="33">
+        <v>2</v>
+      </c>
+      <c r="G188" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="30">
+      <c r="B189" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F189" s="33">
+        <v>2</v>
+      </c>
+      <c r="G189" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="15">
+      <c r="B190" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D190" s="26"/>
+      <c r="E190" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F190" s="33">
+        <v>2</v>
+      </c>
+      <c r="G190" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="30">
+      <c r="B191" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D191" s="26"/>
+      <c r="E191" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F191" s="30">
+        <v>1</v>
+      </c>
+      <c r="G191" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="15">
+      <c r="B192" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D192" s="26"/>
+      <c r="E192" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" s="32">
+        <v>2</v>
+      </c>
+      <c r="G192" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="15">
+      <c r="B193" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D193" s="26"/>
+      <c r="E193" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F193" s="32">
+        <v>2</v>
+      </c>
+      <c r="G193" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="15">
+      <c r="B194" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F194" s="32">
+        <v>2</v>
+      </c>
+      <c r="G194" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="15">
+      <c r="B195" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" s="28"/>
+      <c r="E195" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F195" s="33">
+        <v>2</v>
+      </c>
+      <c r="G195" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="15">
+      <c r="B196" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C196" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D196" s="28"/>
+      <c r="E196" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F196" s="33">
+        <v>1</v>
+      </c>
+      <c r="G196" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="15">
+      <c r="B197" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" s="28"/>
+      <c r="E197" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="33">
+        <v>1</v>
+      </c>
+      <c r="G197" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="15">
+      <c r="B198" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C198" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D198" s="28"/>
+      <c r="E198" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F198" s="33">
+        <v>2</v>
+      </c>
+      <c r="G198" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="15">
+      <c r="B199" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D199" s="28"/>
+      <c r="E199" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F199" s="33">
+        <v>2</v>
+      </c>
+      <c r="G199" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H199" s="11" t="s">
         <v>37</v>
       </c>
     </row>
